--- a/Question_Set2/Role-specific skills/Fundamentals of Statistics and Probability.xlsx
+++ b/Question_Set2/Role-specific skills/Fundamentals of Statistics and Probability.xlsx
@@ -16,23 +16,58 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>questions = [{'title': 'Olympic athletes from the US and China are among those most likely to win a gold medal. For a random athlete from either of these two countries, the following information is known:The probability of winning a gold medal if they practiced at least five hours per day is 0.6.The probability of winning a gold medal if they practiced less than five hours per day is 0.3.20% of athletes practice at least five hours per day.If an American athlete wins a gold medal, what is the probability that they practiced at least five hours per day?', 'ques_type': 2, 'options': ['1/3', '2/5', '1/2', '3/5'], 'score': '1/3'}, {'title': 'Bear Grylls, a British adventurer and television presenter, encounters very heavy rain an average of 14 times a week during tours. Every time he encounters heavy rain, he covers his head with large leaves. What is the probability that he covers his head with leaves only 11 times on an 11-day tour?', 'ques_type': 2, 'options': ['0.0023', '0.0034', '0.0041', '0.0052'], 'score': '0.0041'}, {'title': 'You are researching the effects of COVID-19 on the local populations of three large US cities: New York, Chicago, and Los Angeles. You travel to each city and collect blood samples from 250, 350, and 400 random patients from hospitals in New York, Chicago, and Los Angeles, respectively. What kind of sampling did you use?', 'ques_type': 2, 'options': ['Cluster sampling', 'Multi-stage sampling', 'Blind sampling', 'Stratified sampling'], 'score': 'Stratified sampling'}, {'title': 'You are gathering data to examine the relationship between average daily temperature and your ice cream company’s sales. Your plot of sales against temperature is shown below.  True or false: From the plot, we can infer that lower temperatures cause sales to dip, and higher temperatures cause sales to spike.', 'ques_type': 11, 'options': ['true', 'false'], 'score': 'False'}]</t>
+    <t>questions = [
+    {
+        "title": "Olympic athletes from the US and China are among those most likely to win a gold medal. For a random athlete from either of these two countries, the following information is known:The probability of winning a gold medal if they practiced at least five hours per day is 0.6.The probability of winning a gold medal if they practiced less than five hours per day is 0.3.20% of athletes practice at least five hours per day.If an American athlete wins a gold medal, what is the probability that they practiced at least five hours per day?",
+        "ques_type": 2,
+        "options": [
+            "1/3",
+            "2/5",
+            "1/2",
+            "3/5"
+        ],
+        "score": "1/3"
+    },
+    {
+        "title": "Bear Grylls, a British adventurer and television presenter, encounters very heavy rain an average of 14 times a week during tours. Every time he encounters heavy rain, he covers his head with large leaves. What is the probability that he covers his head with leaves only 11 times on an 11-day tour?",
+        "ques_type": 2,
+        "options": [
+            "0.0023",
+            "0.0034",
+            "0.0041",
+            "0.0052"
+        ],
+        "score": "0.0041"
+    },
+    {
+        "title": "You are researching the effects of COVID-19 on the local populations of three large US cities: New York, Chicago, and Los Angeles. You travel to each city and collect blood samples from 250, 350, and 400 random patients from hospitals in New York, Chicago, and Los Angeles, respectively. What kind of sampling did you use?",
+        "ques_type": 2,
+        "options": [
+            "Cluster sampling",
+            "Multi-stage sampling",
+            "Blind sampling",
+            "Stratified sampling"
+        ],
+        "score": "Stratified sampling"
+    },
+    {
+        "title": "You are gathering data to examine the relationship between average daily temperature and your ice cream company\u2019s sales. Your plot of sales against temperature is shown below.  True or false: From the plot, we can infer that lower temperatures cause sales to dip, and higher temperatures cause sales to spike.",
+        "ques_type": 11,
+        "options": [
+            "true",
+            "false"
+        ],
+        "score": "False"
+    }
+]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -48,7 +83,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -56,30 +91,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -374,19 +391,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
